--- a/ReferenceSch/cap_comp.xlsx
+++ b/ReferenceSch/cap_comp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
   <si>
     <t xml:space="preserve">98 dcdc_Gnd Imp! </t>
   </si>
@@ -157,6 +157,30 @@
   </si>
   <si>
     <t>22u.100n.1u</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>1u.47u</t>
+  </si>
+  <si>
+    <t>22u.100n</t>
+  </si>
+  <si>
+    <t>47u.100n.10n</t>
+  </si>
+  <si>
+    <t>100n.10n.100n.47u.100n.1u</t>
+  </si>
+  <si>
+    <t>1u.100n</t>
+  </si>
+  <si>
+    <t>100n.1u.22u</t>
+  </si>
+  <si>
+    <t>47u</t>
   </si>
 </sst>
 </file>
@@ -963,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,7 +1154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1138,25 +1162,46 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>15</v>
       </c>
@@ -1167,7 +1212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1181,7 +1226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1195,7 +1240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1209,7 +1254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1217,213 +1262,271 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>0</v>
       </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>34</v>
+      <c r="B35" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
       <c r="B36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
-      <c r="C39" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
       </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>33</v>
       </c>
-      <c r="B41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>31</v>
-      </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/ReferenceSch/cap_comp.xlsx
+++ b/ReferenceSch/cap_comp.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="cap_comp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="56">
   <si>
     <t xml:space="preserve">98 dcdc_Gnd Imp! </t>
   </si>
@@ -156,9 +156,6 @@
     <t>MyIMX</t>
   </si>
   <si>
-    <t>22u.100n.1u</t>
-  </si>
-  <si>
     <t>10u</t>
   </si>
   <si>
@@ -181,6 +178,15 @@
   </si>
   <si>
     <t>47u</t>
+  </si>
+  <si>
+    <t>22u?10u??</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>1u, 22u,10n</t>
   </si>
 </sst>
 </file>
@@ -664,8 +670,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -987,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,17 +1008,17 @@
     <col min="5" max="5" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1021,7 +1029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1035,7 +1043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1049,7 +1057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1063,7 +1071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1071,7 +1079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1079,20 +1087,26 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -1105,8 +1119,11 @@
       <c r="E13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1123,7 +1140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1140,7 +1157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1150,7 +1167,7 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1176,24 +1193,24 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1211,6 +1228,9 @@
       <c r="D22" t="s">
         <v>17</v>
       </c>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1267,28 +1287,29 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
         <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>44</v>
       </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E28" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
@@ -1320,7 +1341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1331,7 +1352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1339,28 +1360,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1368,7 +1392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -1379,18 +1403,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>29</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
-      <c r="C41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -1398,7 +1419,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -1406,7 +1427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1414,12 +1435,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -1427,7 +1451,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1435,7 +1459,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -1443,7 +1467,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -1451,31 +1475,34 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>33</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>42</v>
       </c>
       <c r="C54" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>37</v>
       </c>
@@ -1483,7 +1510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -1494,7 +1521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>29</v>
       </c>
@@ -1502,7 +1529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -1510,7 +1537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -1521,12 +1548,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>44</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
